--- a/Benchmarks.xlsx
+++ b/Benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\gopath\src\github.com\ajruckman\ContraCore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8839FA52-492E-4536-8FC8-310BB876938D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA70035-68CA-4B09-B890-797F0E21820F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9684" yWindow="3336" windowWidth="34560" windowHeight="18684" xr2:uid="{5AAA6899-8232-4D27-8B25-0A8FC46F8CA4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>BlockV2: 13846        1</t>
   </si>
@@ -103,6 +103,69 @@
   </si>
   <si>
     <t>Before concurrency</t>
+  </si>
+  <si>
+    <t>BlockV2: 23159        1</t>
+  </si>
+  <si>
+    <t>23159252700 ns/op</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  16.85 MB/s -&gt; 6760924472 B/op</t>
+  </si>
+  <si>
+    <t>150494607 allocs/op</t>
+  </si>
+  <si>
+    <t>BlockV3: 27403        1</t>
+  </si>
+  <si>
+    <t>27403485700 ns/op</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  14.24 MB/s -&gt; 6731700008 B/op</t>
+  </si>
+  <si>
+    <t>134463520 allocs/op</t>
+  </si>
+  <si>
+    <t>BlockV4: 26372        1</t>
+  </si>
+  <si>
+    <t>26372972800 ns/op</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  14.80 MB/s -&gt; 6090628824 B/op</t>
+  </si>
+  <si>
+    <t>121103103 allocs/op</t>
+  </si>
+  <si>
+    <t>BlockV5: 26480        1</t>
+  </si>
+  <si>
+    <t>26480836700 ns/op</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  14.74 MB/s -&gt; 6090668184 B/op</t>
+  </si>
+  <si>
+    <t>121103291 allocs/op</t>
+  </si>
+  <si>
+    <t>BlockV6: 26636        1</t>
+  </si>
+  <si>
+    <t>26636636700 ns/op</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  14.65 MB/s -&gt; 6090351224 B/op</t>
+  </si>
+  <si>
+    <t>121101766 allocs/op</t>
+  </si>
+  <si>
+    <t>After sync.Map</t>
   </si>
 </sst>
 </file>
@@ -463,109 +526,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43963D81-604B-4900-9DFF-3B13A640F958}">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="138.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Benchmarks.xlsx
+++ b/Benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\gopath\src\github.com\ajruckman\ContraCore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA70035-68CA-4B09-B890-797F0E21820F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A814236-702E-49DB-A730-AB39BBD09AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9684" yWindow="3336" windowWidth="34560" windowHeight="18684" xr2:uid="{5AAA6899-8232-4D27-8B25-0A8FC46F8CA4}"/>
   </bookViews>
